--- a/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,85</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 35,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 30,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 35,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 30,03</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 55,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 45,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 55,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 45,04</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 7,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 6,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 7,81</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 7,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 7,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 8,54</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,47; 23,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,07; 13,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,47; 23,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,07; 13,17</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,92; 31,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,09; 16,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,92; 31,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,09; 16,25</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 35,79</t>
+          <t>4,36; 38,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 30,03</t>
+          <t>-5,09; 30,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 35,79</t>
+          <t>4,36; 38,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 30,03</t>
+          <t>-5,09; 30,66</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 55,72</t>
+          <t>4,56; 62,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 45,04</t>
+          <t>-4,41; 49,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 55,72</t>
+          <t>4,56; 62,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 45,04</t>
+          <t>-4,41; 49,08</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,55</t>
+          <t>-1,78; 6,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,81</t>
+          <t>-1,13; 7,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,55</t>
+          <t>-1,78; 6,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,81</t>
+          <t>-1,13; 7,3</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,21</t>
+          <t>-1,79; 7,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 8,54</t>
+          <t>-1,15; 8,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,21</t>
+          <t>-1,79; 7,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 8,54</t>
+          <t>-1,15; 8,08</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 23,71</t>
+          <t>6,33; 22,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 13,17</t>
+          <t>-16,13; 12,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 23,71</t>
+          <t>6,33; 22,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 13,17</t>
+          <t>-16,13; 12,75</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 31,08</t>
+          <t>6,75; 29,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 16,25</t>
+          <t>-17,92; 15,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 31,08</t>
+          <t>6,75; 29,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 16,25</t>
+          <t>-17,92; 15,47</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
     </row>
